--- a/data/trans_orig/P5710-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5710-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>417069</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>393406</v>
+        <v>390081</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>443516</v>
+        <v>441455</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6009536121545621</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5668573376509438</v>
+        <v>0.5620663539517776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6390606487192855</v>
+        <v>0.6360919790230066</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>356</v>
@@ -765,19 +765,19 @@
         <v>347939</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>321296</v>
+        <v>323209</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>375388</v>
+        <v>373621</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5054674986387231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4667618323266552</v>
+        <v>0.4695403490794082</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5453434714941462</v>
+        <v>0.5427766592293277</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>764</v>
@@ -786,19 +786,19 @@
         <v>765008</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>728065</v>
+        <v>726730</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>798913</v>
+        <v>800922</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5534060742591929</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5266814459219277</v>
+        <v>0.5257159181173394</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5779328389188175</v>
+        <v>0.5793864685411062</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>175014</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>152198</v>
+        <v>153547</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198958</v>
+        <v>198724</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2521769502264178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2193011488907922</v>
+        <v>0.2212455485299417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2866784387244344</v>
+        <v>0.2863402963988765</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -836,19 +836,19 @@
         <v>196262</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>173409</v>
+        <v>173971</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223380</v>
+        <v>219865</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2851196757243185</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2519191905737109</v>
+        <v>0.2527361306476247</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3245143018295881</v>
+        <v>0.319408851263568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>372</v>
@@ -857,19 +857,19 @@
         <v>371276</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>335967</v>
+        <v>335955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>405770</v>
+        <v>405831</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2685808589343407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2430378623372476</v>
+        <v>0.2430298163209677</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2935338233125816</v>
+        <v>0.2935774028303869</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>85902</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68805</v>
+        <v>69073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102809</v>
+        <v>104787</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1237760742493522</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09914054536601652</v>
+        <v>0.099526618346512</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1481376870404806</v>
+        <v>0.1509877878036381</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>101</v>
@@ -907,19 +907,19 @@
         <v>101666</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>83173</v>
+        <v>85299</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>118582</v>
+        <v>122221</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1476951660833335</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1208291127110889</v>
+        <v>0.1239173307151585</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1722699831027989</v>
+        <v>0.1775564092666616</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>186</v>
@@ -928,19 +928,19 @@
         <v>187568</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>162894</v>
+        <v>163841</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>212897</v>
+        <v>214571</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1356866430590294</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1178373553976249</v>
+        <v>0.1185223600189932</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1540096623319483</v>
+        <v>0.1552204923672895</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>15063</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8308</v>
+        <v>8462</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24234</v>
+        <v>25645</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02170482632205563</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01197038446241058</v>
+        <v>0.0121935646152429</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03491824591276054</v>
+        <v>0.0369522261385558</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -978,19 +978,19 @@
         <v>35744</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25564</v>
+        <v>24636</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48816</v>
+        <v>48705</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05192633589474801</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03713822774887904</v>
+        <v>0.03579045486576949</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07091676683950691</v>
+        <v>0.07075550049192056</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -999,19 +999,19 @@
         <v>50807</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38799</v>
+        <v>37078</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68897</v>
+        <v>66723</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03675369907175131</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02806728424187566</v>
+        <v>0.02682245797517689</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04984021037509575</v>
+        <v>0.04826710294335638</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4852</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001388537047612242</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006991669493364158</v>
+        <v>0.007205187076873803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1049,19 +1049,19 @@
         <v>6740</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2790</v>
+        <v>2755</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13258</v>
+        <v>13132</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009791323658876843</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004053685346332636</v>
+        <v>0.004002636644368504</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01926081990365939</v>
+        <v>0.01907679033607002</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1070,19 +1070,19 @@
         <v>7704</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3733</v>
+        <v>3737</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14963</v>
+        <v>16000</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005572724675685849</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00270064172198291</v>
+        <v>0.002703694478144386</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01082403837576193</v>
+        <v>0.01157435250296641</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>565752</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>533514</v>
+        <v>533650</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>599357</v>
+        <v>594973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5888860144081604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5553295822266576</v>
+        <v>0.5554714910885675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6238652233053182</v>
+        <v>0.6193017276465084</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>513</v>
@@ -1195,19 +1195,19 @@
         <v>540019</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>507128</v>
+        <v>507598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>571458</v>
+        <v>571423</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5576448481401667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5236798832385942</v>
+        <v>0.5241655342150774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5901096960563835</v>
+        <v>0.5900733410373</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1038</v>
@@ -1216,19 +1216,19 @@
         <v>1105772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1063460</v>
+        <v>1063453</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1147972</v>
+        <v>1146243</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5732032636487172</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5512700582233195</v>
+        <v>0.5512663638855699</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5950790740153754</v>
+        <v>0.5941826352570245</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>255792</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>227259</v>
+        <v>226762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>284160</v>
+        <v>286894</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2662514738124827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2365520804966281</v>
+        <v>0.23603405197288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2957792614896544</v>
+        <v>0.298625013277946</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -1266,19 +1266,19 @@
         <v>265691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>238737</v>
+        <v>234578</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>294184</v>
+        <v>295901</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2743625793130802</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2465295464366632</v>
+        <v>0.2422342492055284</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3037860454410911</v>
+        <v>0.3055582881236303</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>484</v>
@@ -1287,19 +1287,19 @@
         <v>521483</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>481372</v>
+        <v>485594</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>559752</v>
+        <v>562537</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2703231670667688</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2495308711247995</v>
+        <v>0.2517193576569552</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2901606417066604</v>
+        <v>0.2916045295817345</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>113666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>93462</v>
+        <v>93993</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>134654</v>
+        <v>134553</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1183138803748194</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09728355217321688</v>
+        <v>0.09783609414689876</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1401602420733338</v>
+        <v>0.1400545160939854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>117</v>
@@ -1337,19 +1337,19 @@
         <v>127770</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>108571</v>
+        <v>106769</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>150597</v>
+        <v>148678</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1319399826961582</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1121150906035238</v>
+        <v>0.1102536269520123</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1555124949427692</v>
+        <v>0.1535301600385716</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>226</v>
@@ -1358,19 +1358,19 @@
         <v>241436</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>214663</v>
+        <v>212792</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>272777</v>
+        <v>271246</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1251540464779381</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1112758525391307</v>
+        <v>0.1103059061088381</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1414006490906699</v>
+        <v>0.1406068486556336</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>20334</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13138</v>
+        <v>12592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32383</v>
+        <v>31818</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02116541312454829</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01367495999595118</v>
+        <v>0.01310666971562125</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03370707965882178</v>
+        <v>0.03311881430494198</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1408,19 +1408,19 @@
         <v>31756</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21457</v>
+        <v>21871</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46278</v>
+        <v>46944</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03279233629168902</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02215767242583417</v>
+        <v>0.02258467942306681</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04778875159394196</v>
+        <v>0.04847637896880925</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -1429,19 +1429,19 @@
         <v>52090</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37921</v>
+        <v>38423</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67590</v>
+        <v>68415</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02700201143093967</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01965711358483985</v>
+        <v>0.01991745800189226</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03503666517045397</v>
+        <v>0.03546479011352256</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>5172</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2037</v>
+        <v>2043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10430</v>
+        <v>11452</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005383218279989294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002120391743776227</v>
+        <v>0.00212631745292442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01085625950712961</v>
+        <v>0.01192073379881083</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1479,19 +1479,19 @@
         <v>3157</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>974</v>
+        <v>928</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9521</v>
+        <v>8710</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003260253558905819</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001006198139448146</v>
+        <v>0.0009580732048183894</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009831278987093725</v>
+        <v>0.008994720565468397</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1500,19 +1500,19 @@
         <v>8329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4073</v>
+        <v>4090</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16322</v>
+        <v>16326</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004317511375636232</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002111241024626688</v>
+        <v>0.002120224764176803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008461006913774627</v>
+        <v>0.008463052564639671</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>412851</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>383508</v>
+        <v>385464</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>436613</v>
+        <v>439096</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6084684823351258</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5652212997715054</v>
+        <v>0.5681041200455141</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6434884444381779</v>
+        <v>0.6471491109888439</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>396</v>
@@ -1625,19 +1625,19 @@
         <v>389169</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>362295</v>
+        <v>363257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>415174</v>
+        <v>417352</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5690925975637126</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5297947747368708</v>
+        <v>0.5312011266858614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6071210639953224</v>
+        <v>0.6103062245894365</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>782</v>
@@ -1646,19 +1646,19 @@
         <v>802020</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>765819</v>
+        <v>770005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>837925</v>
+        <v>838726</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5887034830268105</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5621311841869339</v>
+        <v>0.5652035234206753</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6150587083217121</v>
+        <v>0.6156465106362669</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>157379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>136520</v>
+        <v>133896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181754</v>
+        <v>180074</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2319475713827563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2012053320374245</v>
+        <v>0.1973380039094899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2678721478366825</v>
+        <v>0.2653962067781805</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>164</v>
@@ -1696,19 +1696,19 @@
         <v>159165</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>138246</v>
+        <v>138080</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>180492</v>
+        <v>181623</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2327510240272219</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2021605774829446</v>
+        <v>0.2019185380625457</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2639382857278638</v>
+        <v>0.2655923191470066</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>317</v>
@@ -1717,19 +1717,19 @@
         <v>316543</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>286999</v>
+        <v>285416</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>346464</v>
+        <v>346453</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2323508700274551</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2106644729771325</v>
+        <v>0.2095028875510223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2543136283132164</v>
+        <v>0.2543057144788207</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>90777</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72848</v>
+        <v>74844</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>109794</v>
+        <v>111173</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1337885152579071</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1073651956300135</v>
+        <v>0.1103071133629699</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1618163198147063</v>
+        <v>0.1638483798911206</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>102</v>
@@ -1767,19 +1767,19 @@
         <v>100043</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83637</v>
+        <v>82879</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>118143</v>
+        <v>118514</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1462954621455669</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1223041447683239</v>
+        <v>0.1211959223254836</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1727640202596895</v>
+        <v>0.1733066764623655</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>188</v>
@@ -1788,19 +1788,19 @@
         <v>190820</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>167733</v>
+        <v>166749</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>220381</v>
+        <v>217722</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1400664642619431</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1231202668992126</v>
+        <v>0.1223982890034385</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1617652714713594</v>
+        <v>0.1598135360328505</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>13831</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7282</v>
+        <v>7899</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22597</v>
+        <v>23372</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02038399792122322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01073218484519218</v>
+        <v>0.01164242889044997</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03330371713470776</v>
+        <v>0.03444613939428283</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1838,19 +1838,19 @@
         <v>31795</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21498</v>
+        <v>21849</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44336</v>
+        <v>44722</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0464953502080844</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03143749033550324</v>
+        <v>0.0319497643270677</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06483449138756127</v>
+        <v>0.06539788941916493</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -1859,19 +1859,19 @@
         <v>45626</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34043</v>
+        <v>32774</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61320</v>
+        <v>60901</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03349077286444098</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02498851515463417</v>
+        <v>0.02405706801192423</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04501026360831319</v>
+        <v>0.044703225620084</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>3672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10998</v>
+        <v>12453</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005411433102987549</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001451099279921618</v>
+        <v>0.001456076911537297</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01620916221107234</v>
+        <v>0.01835307493177414</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1909,19 +1909,19 @@
         <v>3669</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9260</v>
+        <v>11223</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005365566055414247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001561831824168754</v>
+        <v>0.001560586633816509</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01354115451279917</v>
+        <v>0.01641120545014221</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1930,19 +1930,19 @@
         <v>7341</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2745</v>
+        <v>2708</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15419</v>
+        <v>15386</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005388409819350277</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002014844742606363</v>
+        <v>0.001987633593972331</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01131808328671276</v>
+        <v>0.01129343767919769</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>549343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>521248</v>
+        <v>520293</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>577893</v>
+        <v>579803</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5830295691870798</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5532114759889704</v>
+        <v>0.5521978370872195</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6133301708611592</v>
+        <v>0.6153572744012923</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>582</v>
@@ -2055,19 +2055,19 @@
         <v>604454</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>571655</v>
+        <v>569849</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>637101</v>
+        <v>635050</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5819824659805919</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.55040243217295</v>
+        <v>0.5486640639292703</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6134156172679951</v>
+        <v>0.6114411805511933</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1162</v>
@@ -2076,19 +2076,19 @@
         <v>1153797</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1108265</v>
+        <v>1109117</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1195748</v>
+        <v>1195172</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5824805408969602</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5594939024896619</v>
+        <v>0.5599241883101923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6036590420003948</v>
+        <v>0.6033682218679243</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>258547</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233719</v>
+        <v>231728</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>286170</v>
+        <v>285585</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2744010586369336</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2480510411901826</v>
+        <v>0.2459381936690273</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3037177387700987</v>
+        <v>0.3030972974991697</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>250</v>
@@ -2126,19 +2126,19 @@
         <v>256929</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>227854</v>
+        <v>229290</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>286407</v>
+        <v>286627</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2473770047038047</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2193834034069228</v>
+        <v>0.2207662432970204</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2757592919131857</v>
+        <v>0.2759716322698313</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>523</v>
@@ -2147,19 +2147,19 @@
         <v>515475</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>478371</v>
+        <v>476941</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>557040</v>
+        <v>551418</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2602315192533521</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2414999868997936</v>
+        <v>0.2407778749708451</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2812147538161128</v>
+        <v>0.2783767888892473</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>93087</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>77498</v>
+        <v>76299</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>111607</v>
+        <v>111415</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09879558990167117</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08225010167348087</v>
+        <v>0.08097730540902345</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.11845121133398</v>
+        <v>0.1182473763563058</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>113</v>
@@ -2197,19 +2197,19 @@
         <v>120250</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>99636</v>
+        <v>99653</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>142583</v>
+        <v>141776</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1157796214044596</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0959319729436436</v>
+        <v>0.09594823587096918</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1372822370229121</v>
+        <v>0.1365054887550623</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>212</v>
@@ -2218,19 +2218,19 @@
         <v>213337</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>186575</v>
+        <v>186060</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>240166</v>
+        <v>242225</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1077008379398172</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09419022147174165</v>
+        <v>0.09392995605996315</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.121244864361668</v>
+        <v>0.1222842423933203</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>40374</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28865</v>
+        <v>29663</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54538</v>
+        <v>54710</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04284997099668143</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03063542879770736</v>
+        <v>0.0314814662047374</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05788272204622254</v>
+        <v>0.05806475569811195</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -2268,19 +2268,19 @@
         <v>50091</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36535</v>
+        <v>36714</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65033</v>
+        <v>65937</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04822875247283451</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03517627470469754</v>
+        <v>0.03534907908700852</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06261568785656624</v>
+        <v>0.06348606329780693</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>87</v>
@@ -2289,19 +2289,19 @@
         <v>90465</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73201</v>
+        <v>73462</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113136</v>
+        <v>112257</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04567023090848533</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03695479264932739</v>
+        <v>0.03708661385779181</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05711528185473921</v>
+        <v>0.05667170289469362</v>
       </c>
     </row>
     <row r="26">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4390</v>
+        <v>4329</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0009238112776339395</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.004658825624399654</v>
+        <v>0.004594842076516399</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2339,19 +2339,19 @@
         <v>6888</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14401</v>
+        <v>14898</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006632155438309341</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002288194568944622</v>
+        <v>0.002284833462360286</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01386560028610954</v>
+        <v>0.01434449366565732</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2360,19 +2360,19 @@
         <v>7759</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3248</v>
+        <v>3408</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15444</v>
+        <v>16309</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003916871001385111</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001639646531133338</v>
+        <v>0.001720435214987848</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007796745644288306</v>
+        <v>0.008233237087966947</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1945016</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1886828</v>
+        <v>1880694</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2002836</v>
+        <v>2000428</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5938147491586659</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5760498982036509</v>
+        <v>0.5741773739176402</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6114673564705193</v>
+        <v>0.6107322324441515</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1847</v>
@@ -2485,19 +2485,19 @@
         <v>1881581</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1818571</v>
+        <v>1819613</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1934420</v>
+        <v>1937400</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5568131275191098</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5381664646793073</v>
+        <v>0.5384749875392074</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5724495870853675</v>
+        <v>0.573331368905363</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3746</v>
@@ -2506,19 +2506,19 @@
         <v>3826597</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3746603</v>
+        <v>3735368</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3899833</v>
+        <v>3911731</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5750255317879196</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.563004785082182</v>
+        <v>0.5613165418124794</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5860307878237067</v>
+        <v>0.587818738436111</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>846731</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>800828</v>
+        <v>800226</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>903246</v>
+        <v>898736</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2585076190121774</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2444934592920705</v>
+        <v>0.2443095398343048</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2757616035371114</v>
+        <v>0.2743848160566028</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>858</v>
@@ -2556,19 +2556,19 @@
         <v>878047</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>828878</v>
+        <v>825463</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>929791</v>
+        <v>925475</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2598388412917361</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2452885234717564</v>
+        <v>0.2442779414907948</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2751516072454804</v>
+        <v>0.2738741106960698</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1696</v>
@@ -2577,19 +2577,19 @@
         <v>1724778</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1656978</v>
+        <v>1647469</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1801867</v>
+        <v>1794539</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2591836062708728</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2489952355041823</v>
+        <v>0.2475662949089343</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2707678027171024</v>
+        <v>0.2696666147806839</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>383432</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>348274</v>
+        <v>347924</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>419105</v>
+        <v>424586</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1170621298566328</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1063284127457218</v>
+        <v>0.1062215498479224</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1279529562380387</v>
+        <v>0.129626278332475</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>433</v>
@@ -2627,19 +2627,19 @@
         <v>449729</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>411226</v>
+        <v>408478</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>489671</v>
+        <v>493442</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1330874795403464</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1216935298535019</v>
+        <v>0.1208801190405004</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1449075081671536</v>
+        <v>0.1460234716590086</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>812</v>
@@ -2648,19 +2648,19 @@
         <v>833161</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>776911</v>
+        <v>778126</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>887441</v>
+        <v>887041</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1251997131653499</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1167469753851888</v>
+        <v>0.116929626666699</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1333563995069467</v>
+        <v>0.1332963428712366</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>89602</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>70043</v>
+        <v>72602</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>110142</v>
+        <v>109998</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02735563970463521</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02138406119334383</v>
+        <v>0.02216529871583627</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.033626362794584</v>
+        <v>0.03358247997247905</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>140</v>
@@ -2698,19 +2698,19 @@
         <v>149386</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>127638</v>
+        <v>127108</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>175902</v>
+        <v>174930</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04420748515189714</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03777180940568066</v>
+        <v>0.03761490868158801</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05205432086402539</v>
+        <v>0.05176676454023822</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>227</v>
@@ -2719,19 +2719,19 @@
         <v>238988</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>208095</v>
+        <v>205955</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>273624</v>
+        <v>272627</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03591291295852778</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03127060920427267</v>
+        <v>0.03094896190296928</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04111769950338161</v>
+        <v>0.04096786922112769</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>10678</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5764</v>
+        <v>5066</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19657</v>
+        <v>20199</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003259862267888588</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001759685513892939</v>
+        <v>0.001546763292195438</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.006001426953714412</v>
+        <v>0.006166628280180863</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -2769,19 +2769,19 @@
         <v>20455</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12867</v>
+        <v>13052</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>31253</v>
+        <v>30926</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006053066496910563</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003807644842133602</v>
+        <v>0.003862470974253195</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.009248527389358318</v>
+        <v>0.009151918714019595</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>29</v>
@@ -2790,19 +2790,19 @@
         <v>31132</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20654</v>
+        <v>19944</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>43429</v>
+        <v>43382</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004678235817329904</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003103621933933158</v>
+        <v>0.002996997662135093</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006526157375389021</v>
+        <v>0.006519103282416287</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>447490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>421644</v>
+        <v>418587</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>472259</v>
+        <v>471619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6369925193375332</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6002013980648156</v>
+        <v>0.5958496713823834</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6722516232915584</v>
+        <v>0.6713403976683943</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>401</v>
@@ -3155,19 +3155,19 @@
         <v>425209</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>396562</v>
+        <v>394424</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>448962</v>
+        <v>449304</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6116904552778665</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5704810120737848</v>
+        <v>0.5674040898901761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6458609349509025</v>
+        <v>0.646353249510451</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>833</v>
@@ -3176,19 +3176,19 @@
         <v>872698</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>837833</v>
+        <v>833792</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>909752</v>
+        <v>908687</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6244081687055217</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5994621168363167</v>
+        <v>0.596571146160685</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6509194585173202</v>
+        <v>0.6501575387600851</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>183099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>158909</v>
+        <v>159673</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>207804</v>
+        <v>208198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2606372690329725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2262032828550074</v>
+        <v>0.2272914255138869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2958046336376905</v>
+        <v>0.2963652274847242</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -3226,19 +3226,19 @@
         <v>199405</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177563</v>
+        <v>176303</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>226430</v>
+        <v>226063</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2868570950000529</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2554364064191095</v>
+        <v>0.2536227567849061</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3257341929485997</v>
+        <v>0.3252056956652926</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>352</v>
@@ -3247,19 +3247,19 @@
         <v>382504</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>350012</v>
+        <v>352086</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>417520</v>
+        <v>419012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2736780819366928</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2504302079698183</v>
+        <v>0.2519146151227912</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2987316568793814</v>
+        <v>0.2997996329914831</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>53329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40623</v>
+        <v>40992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68122</v>
+        <v>69460</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07591257555684799</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05782621562423967</v>
+        <v>0.0583509820624755</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09696957864378844</v>
+        <v>0.0988747402087533</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -3297,19 +3297,19 @@
         <v>47355</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35293</v>
+        <v>35638</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63206</v>
+        <v>63877</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06812352470006382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05077154164411224</v>
+        <v>0.05126785150634631</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09092577324476019</v>
+        <v>0.09189053539009812</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -3318,19 +3318,19 @@
         <v>100684</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>81025</v>
+        <v>82975</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>119154</v>
+        <v>121789</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07203857749719592</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05797270720297259</v>
+        <v>0.0593681929560378</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08525345296312115</v>
+        <v>0.0871389830546405</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>13679</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7715</v>
+        <v>7538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22474</v>
+        <v>22528</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0194723292496714</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01098232391483512</v>
+        <v>0.01073071002743946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03199180936310024</v>
+        <v>0.0320684731871517</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -3368,19 +3368,19 @@
         <v>17868</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10508</v>
+        <v>10654</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28228</v>
+        <v>28824</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02570455081299937</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01511636386947385</v>
+        <v>0.01532657220601021</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04060787579969333</v>
+        <v>0.04146489461627492</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -3389,19 +3389,19 @@
         <v>31548</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21639</v>
+        <v>22385</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44961</v>
+        <v>44363</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02257201555132465</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01548251776779087</v>
+        <v>0.01601626825075023</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03216885375685045</v>
+        <v>0.03174158082074938</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>4907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1919</v>
+        <v>1780</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10982</v>
+        <v>11026</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006985306822974945</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002731054527774713</v>
+        <v>0.002533833071928599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01563267091510826</v>
+        <v>0.01569490019096179</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -3439,19 +3439,19 @@
         <v>5300</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1978</v>
+        <v>2009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11708</v>
+        <v>11537</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007624374209017458</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002845964345199722</v>
+        <v>0.002890781507045372</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01684306172814849</v>
+        <v>0.01659704468800289</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -3460,19 +3460,19 @@
         <v>10207</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5341</v>
+        <v>5138</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17815</v>
+        <v>17112</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007303156309264956</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003821727277462397</v>
+        <v>0.003676208187593656</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01274646540191838</v>
+        <v>0.0122438279291734</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>596900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>563031</v>
+        <v>560869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>631126</v>
+        <v>626374</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5881335909560025</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5547622851536336</v>
+        <v>0.5526324531447064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6218574101095162</v>
+        <v>0.6171745549746761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>533</v>
@@ -3585,19 +3585,19 @@
         <v>582851</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>549186</v>
+        <v>551798</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>615086</v>
+        <v>618664</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.565841170310929</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5331585949669394</v>
+        <v>0.535694165031425</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5971353825846929</v>
+        <v>0.6006084051613009</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1084</v>
@@ -3606,19 +3606,19 @@
         <v>1179751</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1133998</v>
+        <v>1129052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1225176</v>
+        <v>1225262</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5769047648814419</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5545313271596357</v>
+        <v>0.5521129586141369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5991181732105859</v>
+        <v>0.5991602417281376</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>296803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>266968</v>
+        <v>265860</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>326877</v>
+        <v>327168</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2924439977428465</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2630473741061059</v>
+        <v>0.261955320802914</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3220767931320558</v>
+        <v>0.3223630722553083</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>289</v>
@@ -3656,19 +3656,19 @@
         <v>315022</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>287756</v>
+        <v>283572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>343823</v>
+        <v>344803</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3058278911003193</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2793575616434342</v>
+        <v>0.2752961288145955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3337884525900013</v>
+        <v>0.3347401157557905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>559</v>
@@ -3677,19 +3677,19 @@
         <v>611824</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>566807</v>
+        <v>570587</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>650960</v>
+        <v>655485</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2991855451550491</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2771716446119384</v>
+        <v>0.2790203330966073</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.318323329432399</v>
+        <v>0.3205360201997691</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>93099</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75748</v>
+        <v>75732</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>112472</v>
+        <v>111883</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09173205248336126</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07463508829314566</v>
+        <v>0.07461931390626698</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1108202319824484</v>
+        <v>0.1102396218247358</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>94</v>
@@ -3727,19 +3727,19 @@
         <v>104829</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85026</v>
+        <v>87039</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>125997</v>
+        <v>127592</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1017694518107625</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08254418048899001</v>
+        <v>0.08449886491360732</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1223198400970937</v>
+        <v>0.1238685132027542</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>182</v>
@@ -3748,19 +3748,19 @@
         <v>197928</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>173574</v>
+        <v>171392</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>226000</v>
+        <v>225358</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09678795076748087</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08487861811165637</v>
+        <v>0.08381168253980385</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.110515354613623</v>
+        <v>0.1102015812264948</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>23937</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14735</v>
+        <v>14556</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36113</v>
+        <v>38031</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02358545480320994</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01451876758355299</v>
+        <v>0.01434219942256566</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03558295841216532</v>
+        <v>0.03747215921096848</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -3798,19 +3798,19 @@
         <v>21322</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13057</v>
+        <v>12959</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33989</v>
+        <v>32676</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02069992503038522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01267624848506962</v>
+        <v>0.0125805434800545</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03299728008420443</v>
+        <v>0.03172207700140715</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -3819,19 +3819,19 @@
         <v>45259</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33260</v>
+        <v>31821</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62993</v>
+        <v>62489</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0221319961381378</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01626438216809324</v>
+        <v>0.01556077179028617</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03080397911057449</v>
+        <v>0.03055736894303774</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>4166</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9746</v>
+        <v>9954</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004104904014579893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001029088815814154</v>
+        <v>0.001035832045309839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0096031957405085</v>
+        <v>0.009807929877280169</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3869,19 +3869,19 @@
         <v>6038</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14633</v>
+        <v>16537</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005861561747604068</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001807430766512773</v>
+        <v>0.001813750451887863</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01420596304163011</v>
+        <v>0.01605462696996043</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -3890,19 +3890,19 @@
         <v>10204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4868</v>
+        <v>4109</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20860</v>
+        <v>19770</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004989743057890317</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002380488131483803</v>
+        <v>0.002009498574313698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01020077682488735</v>
+        <v>0.009667594641399506</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>475344</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>444226</v>
+        <v>446456</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>500675</v>
+        <v>502423</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.631040562071532</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5897295272397084</v>
+        <v>0.5926900521856607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6646686873613634</v>
+        <v>0.6669887223841554</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>415</v>
@@ -4015,19 +4015,19 @@
         <v>457843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>429725</v>
+        <v>430860</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>486763</v>
+        <v>486643</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5899570903085765</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5537252309190279</v>
+        <v>0.5551888022289975</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6272227861122247</v>
+        <v>0.6270676902864718</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>847</v>
@@ -4036,19 +4036,19 @@
         <v>933187</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>893107</v>
+        <v>894697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>969377</v>
+        <v>971985</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6101927003137924</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5839852688831926</v>
+        <v>0.5850253823722282</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.63385663754512</v>
+        <v>0.635561920270982</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>182622</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160542</v>
+        <v>160641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>212121</v>
+        <v>210937</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2424394714829807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2131262267873688</v>
+        <v>0.2132579586855503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2816002856458507</v>
+        <v>0.2800279270615765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -4086,19 +4086,19 @@
         <v>201846</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175807</v>
+        <v>176607</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>228016</v>
+        <v>224960</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2600909938927672</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.226538080182745</v>
+        <v>0.2275690343288435</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2938118160408006</v>
+        <v>0.2898743927206561</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>350</v>
@@ -4107,19 +4107,19 @@
         <v>384469</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>348199</v>
+        <v>348460</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>419712</v>
+        <v>420135</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2513967597359343</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2276805403282195</v>
+        <v>0.2278515551200811</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2744413788014309</v>
+        <v>0.2747183926533245</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>73283</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>57123</v>
+        <v>56766</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>92162</v>
+        <v>92146</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09728606564553506</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07583343352102216</v>
+        <v>0.07535968180739976</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.122349046418796</v>
+        <v>0.1223285967184331</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -4157,19 +4157,19 @@
         <v>84865</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>67132</v>
+        <v>69299</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>104260</v>
+        <v>104814</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1093534499214059</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08650409109821432</v>
+        <v>0.08929532875302026</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1343446525973099</v>
+        <v>0.1350594505671619</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>142</v>
@@ -4178,19 +4178,19 @@
         <v>158148</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>136452</v>
+        <v>133987</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>184490</v>
+        <v>182924</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1034096756610772</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08922305167489165</v>
+        <v>0.08761121058029603</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1206341970038901</v>
+        <v>0.1196103386261283</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>19022</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11929</v>
+        <v>11157</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31478</v>
+        <v>29335</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02525318962069396</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.015836412734634</v>
+        <v>0.0148113280221381</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04178811524986617</v>
+        <v>0.03894375611937907</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -4228,19 +4228,19 @@
         <v>20345</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12331</v>
+        <v>12809</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29989</v>
+        <v>32334</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02621531461786221</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01588879819484983</v>
+        <v>0.01650477593001087</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03864318809351147</v>
+        <v>0.04166471485459417</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -4249,19 +4249,19 @@
         <v>39367</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>28192</v>
+        <v>28249</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53685</v>
+        <v>53642</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0257414212153937</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01843391141190284</v>
+        <v>0.01847141908525586</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.035103545069085</v>
+        <v>0.03507567504985679</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>2999</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8077</v>
+        <v>8174</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003980711179258252</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001267831317853004</v>
+        <v>0.001259943415584202</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01072231584237022</v>
+        <v>0.01085081658227257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -4299,19 +4299,19 @@
         <v>11162</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5952</v>
+        <v>5265</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19709</v>
+        <v>18585</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01438315125938829</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007668872946856866</v>
+        <v>0.006783979001827863</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02539663648334995</v>
+        <v>0.02394778024615957</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -4320,19 +4320,19 @@
         <v>14161</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8281</v>
+        <v>8070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23362</v>
+        <v>23326</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009259443073802503</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005414660251402008</v>
+        <v>0.005277056788124703</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01527597168060608</v>
+        <v>0.01525233891005002</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>527748</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>496218</v>
+        <v>497624</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>556939</v>
+        <v>556413</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5574171710188179</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5241147868763351</v>
+        <v>0.5256002986637162</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5882497406436072</v>
+        <v>0.587694525687125</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>540</v>
@@ -4445,19 +4445,19 @@
         <v>564972</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>532961</v>
+        <v>530911</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>594331</v>
+        <v>598299</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5391897816300381</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5086396820796167</v>
+        <v>0.5066829250871132</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5672091587288122</v>
+        <v>0.5709956656756693</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1057</v>
@@ -4466,19 +4466,19 @@
         <v>1092720</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1044925</v>
+        <v>1045893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1141015</v>
+        <v>1137373</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5478417881351627</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5238795086728892</v>
+        <v>0.5243648401768558</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5720550187117878</v>
+        <v>0.5702287594222767</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>274209</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>245878</v>
+        <v>245848</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>306071</v>
+        <v>302955</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.289624792076948</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.259700906492089</v>
+        <v>0.2596696892098392</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3232779680741357</v>
+        <v>0.3199865955200792</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>308</v>
@@ -4516,19 +4516,19 @@
         <v>321953</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>292742</v>
+        <v>291146</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>352078</v>
+        <v>351022</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.307261123852721</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2793823831485718</v>
+        <v>0.2778592235374909</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3360112167413903</v>
+        <v>0.3350031512412067</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>567</v>
@@ -4537,19 +4537,19 @@
         <v>596162</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>552897</v>
+        <v>556445</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>640347</v>
+        <v>636529</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2988896750403939</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2771985715281637</v>
+        <v>0.2789770394467261</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3210417604750544</v>
+        <v>0.3191276157339137</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>119207</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>97755</v>
+        <v>97859</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>141695</v>
+        <v>140869</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.125909089083224</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1032506639969196</v>
+        <v>0.1033602027318488</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1496609114969041</v>
+        <v>0.1487884950321859</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>122</v>
@@ -4587,19 +4587,19 @@
         <v>130624</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>109170</v>
+        <v>109815</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>151874</v>
+        <v>152553</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1246630117216568</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1041882781641117</v>
+        <v>0.1048035492101047</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1449433735934079</v>
+        <v>0.1455909451012994</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>230</v>
@@ -4608,19 +4608,19 @@
         <v>249831</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>219309</v>
+        <v>221881</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>280097</v>
+        <v>283923</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1252544880547846</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1099520808110511</v>
+        <v>0.1112412950205872</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1404282373868976</v>
+        <v>0.1423466614557357</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>21716</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14040</v>
+        <v>13977</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34082</v>
+        <v>31809</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02293699355200279</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01482965940727705</v>
+        <v>0.01476266754288531</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03599826112099624</v>
+        <v>0.03359772156436436</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -4658,19 +4658,19 @@
         <v>17310</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10198</v>
+        <v>10980</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26626</v>
+        <v>28089</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01651966489966534</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009732516443006612</v>
+        <v>0.01047914379331005</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02541100256811074</v>
+        <v>0.02680720862128013</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -4679,19 +4679,19 @@
         <v>39026</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28001</v>
+        <v>27821</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52815</v>
+        <v>52901</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01956578236943993</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01403860071176476</v>
+        <v>0.0139482912257038</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02647888232642147</v>
+        <v>0.02652231650216118</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>3893</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>984</v>
+        <v>1011</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8927</v>
+        <v>8959</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004111954269007311</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001039147601953375</v>
+        <v>0.001067516487029083</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.009428891167595585</v>
+        <v>0.009462547487627234</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -4729,19 +4729,19 @@
         <v>12958</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7056</v>
+        <v>6973</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22620</v>
+        <v>22876</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01236641789591886</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006734252332553465</v>
+        <v>0.006654624564240766</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02158811133822541</v>
+        <v>0.02183210147041387</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -4750,19 +4750,19 @@
         <v>16851</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10117</v>
+        <v>9735</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27866</v>
+        <v>26710</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008448266400218903</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005072405131833654</v>
+        <v>0.004880863069833454</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01397083860305571</v>
+        <v>0.0133913794440079</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>2047480</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1988311</v>
+        <v>1988684</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2105570</v>
+        <v>2102636</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5991250025983688</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5818111421886534</v>
+        <v>0.5819202708791312</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6161229238398435</v>
+        <v>0.6152644602383319</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1889</v>
@@ -4875,19 +4875,19 @@
         <v>2030874</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1972308</v>
+        <v>1971277</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2098090</v>
+        <v>2091183</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5722262629470155</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5557242536463789</v>
+        <v>0.5554338128106592</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.591165243262939</v>
+        <v>0.5892189614939209</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3821</v>
@@ -4896,19 +4896,19 @@
         <v>4078355</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3993665</v>
+        <v>4000830</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4161169</v>
+        <v>4161650</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.585421521441889</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5732648204602231</v>
+        <v>0.5742932172862744</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5973089436876554</v>
+        <v>0.597377857646902</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>936733</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>884142</v>
+        <v>884856</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>990869</v>
+        <v>991275</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2741027291942619</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2587137990709393</v>
+        <v>0.2589229461491173</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2899439027791486</v>
+        <v>0.2900627445906419</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>964</v>
@@ -4946,19 +4946,19 @@
         <v>1038226</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>982234</v>
+        <v>981101</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1095703</v>
+        <v>1094214</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2925342485146253</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2767577348828905</v>
+        <v>0.2764385280186645</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3087291210268914</v>
+        <v>0.3083095413088655</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1828</v>
@@ -4967,19 +4967,19 @@
         <v>1974959</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1903269</v>
+        <v>1889195</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2047441</v>
+        <v>2051277</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2834926106892926</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2732020030979146</v>
+        <v>0.2711817371767513</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2938968812282971</v>
+        <v>0.2944476021031538</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>338918</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>304894</v>
+        <v>304426</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>375757</v>
+        <v>375826</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09917278394708673</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08921691334554188</v>
+        <v>0.08907969791116967</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1099525007909297</v>
+        <v>0.1099725245016952</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>335</v>
@@ -5017,19 +5017,19 @@
         <v>367673</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>332032</v>
+        <v>330219</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>408807</v>
+        <v>405610</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1035967931854981</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09355451505561325</v>
+        <v>0.0930437337622043</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1151868395679659</v>
+        <v>0.1142861313745647</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>651</v>
@@ -5038,19 +5038,19 @@
         <v>706591</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>653471</v>
+        <v>656713</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>755445</v>
+        <v>757682</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1014265820067892</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09380155091733779</v>
+        <v>0.09426686798228819</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1084392067170144</v>
+        <v>0.108760285727022</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>78355</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>61698</v>
+        <v>61908</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>98162</v>
+        <v>99625</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02292789546275709</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01805380062380143</v>
+        <v>0.01811530792954977</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02872386823713779</v>
+        <v>0.02915193213065486</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>70</v>
@@ -5088,19 +5088,19 @@
         <v>76845</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>58879</v>
+        <v>60371</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>94657</v>
+        <v>96913</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02165201267244387</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01659003169532841</v>
+        <v>0.01701044978499845</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02667076263212537</v>
+        <v>0.02730660899103549</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>142</v>
@@ -5109,19 +5109,19 @@
         <v>155200</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>130573</v>
+        <v>130660</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>184848</v>
+        <v>183022</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02227790085328644</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01874286118680115</v>
+        <v>0.01875536511893787</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02653366550322097</v>
+        <v>0.02627169429151021</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>15965</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9539</v>
+        <v>9863</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>25639</v>
+        <v>24306</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004671588797525564</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002791381094956207</v>
+        <v>0.002886133898581377</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007502404327279224</v>
+        <v>0.007112218353566729</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -5159,19 +5159,19 @@
         <v>35458</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24664</v>
+        <v>25403</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50183</v>
+        <v>50163</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009990682680417274</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006949350608259816</v>
+        <v>0.007157656782953207</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01413961241525023</v>
+        <v>0.0141339913985291</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>48</v>
@@ -5180,19 +5180,19 @@
         <v>51423</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>39157</v>
+        <v>38186</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68465</v>
+        <v>67328</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007381385008742702</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005620722481221801</v>
+        <v>0.005481402559740491</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.009827774767492531</v>
+        <v>0.009664556882913941</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>327748</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>300697</v>
+        <v>302760</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>354256</v>
+        <v>353717</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.486458995017391</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4463083878430675</v>
+        <v>0.4493713381957347</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5258031746259716</v>
+        <v>0.5250039493489544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>316</v>
@@ -5545,19 +5545,19 @@
         <v>315963</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>291495</v>
+        <v>290584</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>344749</v>
+        <v>343152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4709830299941309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4345101644674469</v>
+        <v>0.4331521380733958</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5138918332541835</v>
+        <v>0.5115120642327582</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>631</v>
@@ -5566,19 +5566,19 @@
         <v>643711</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>605416</v>
+        <v>605722</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>680054</v>
+        <v>682381</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4787376008035781</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4502569071252278</v>
+        <v>0.4504845904516633</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5057661597637173</v>
+        <v>0.5074967377413848</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>238004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>214980</v>
+        <v>214763</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264773</v>
+        <v>263477</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3532575044986849</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3190837438169519</v>
+        <v>0.3187612999290325</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3929887234248241</v>
+        <v>0.3910651600418056</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>231</v>
@@ -5616,19 +5616,19 @@
         <v>233211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>208973</v>
+        <v>210914</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257471</v>
+        <v>259164</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3476304203597531</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3115004300763315</v>
+        <v>0.3143938293404323</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3837923540344758</v>
+        <v>0.3863166714181004</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>464</v>
@@ -5637,19 +5637,19 @@
         <v>471215</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>438017</v>
+        <v>435599</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>505725</v>
+        <v>506982</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3504499939592333</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3257594687023468</v>
+        <v>0.3239617726339042</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3761156389223472</v>
+        <v>0.377050190468852</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>80743</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65018</v>
+        <v>64024</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99255</v>
+        <v>98840</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1198431922158874</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09650226524042188</v>
+        <v>0.09502767571497463</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1473190263773031</v>
+        <v>0.1467027072916936</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>95</v>
@@ -5687,19 +5687,19 @@
         <v>97969</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>80162</v>
+        <v>80776</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>119186</v>
+        <v>118594</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1460350570831684</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1194919604036323</v>
+        <v>0.120406284360073</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1776622553405036</v>
+        <v>0.1767797029026198</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>173</v>
@@ -5708,19 +5708,19 @@
         <v>178712</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>154690</v>
+        <v>155742</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>203292</v>
+        <v>205391</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1329110502480833</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1150452168620888</v>
+        <v>0.1158276083300701</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1511912857968853</v>
+        <v>0.152752639713562</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>25223</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16334</v>
+        <v>16162</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37337</v>
+        <v>37260</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03743773912089939</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02424314361586283</v>
+        <v>0.02398874882693379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05541729779167743</v>
+        <v>0.0553031987983154</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -5758,19 +5758,19 @@
         <v>18443</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11289</v>
+        <v>11147</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29576</v>
+        <v>28880</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02749130238923651</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01682814462039267</v>
+        <v>0.01661575922991031</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04408633742638084</v>
+        <v>0.04304866539005071</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -5779,19 +5779,19 @@
         <v>43666</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32126</v>
+        <v>31837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59976</v>
+        <v>58978</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03247518209053081</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02389237680385073</v>
+        <v>0.02367744215549012</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0446053482069312</v>
+        <v>0.04386294525041463</v>
       </c>
     </row>
     <row r="8">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7363</v>
+        <v>7173</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003002569147137344</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01092791879880664</v>
+        <v>0.01064652185509474</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -5829,19 +5829,19 @@
         <v>5273</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2001</v>
+        <v>2034</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11204</v>
+        <v>12020</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007860190173711111</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002983232675979982</v>
+        <v>0.003032307075812803</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01670136328406809</v>
+        <v>0.01791732760242406</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -5850,19 +5850,19 @@
         <v>7296</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3080</v>
+        <v>3032</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14492</v>
+        <v>13511</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00542617289857444</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002290953913236051</v>
+        <v>0.002255252997821651</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01077763139584776</v>
+        <v>0.01004818779053223</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>534269</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>500274</v>
+        <v>497651</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>566451</v>
+        <v>565388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5225476264412612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4892982867121884</v>
+        <v>0.4867335139845411</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5540238536707504</v>
+        <v>0.5529840719223211</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>532</v>
@@ -5975,19 +5975,19 @@
         <v>563556</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>531657</v>
+        <v>531067</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>595888</v>
+        <v>597369</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5408448617707221</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5102317445565018</v>
+        <v>0.5096654592501122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5718741132342405</v>
+        <v>0.5732947186043822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1030</v>
@@ -5996,19 +5996,19 @@
         <v>1097825</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1050297</v>
+        <v>1049359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1144970</v>
+        <v>1143594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5317829313306484</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5087603894999123</v>
+        <v>0.5083063080801629</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5546197584875131</v>
+        <v>0.5539531070229686</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>342851</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310063</v>
+        <v>311968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>373498</v>
+        <v>375863</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3353293853191199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.303260378859963</v>
+        <v>0.3051236629877058</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3653040805452608</v>
+        <v>0.3676167681875019</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>338</v>
@@ -6046,19 +6046,19 @@
         <v>361571</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>332781</v>
+        <v>327921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>394371</v>
+        <v>393427</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3469995443670355</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3193701436046079</v>
+        <v>0.314706246953441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3784779974424532</v>
+        <v>0.3775717064995385</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>659</v>
@@ -6067,19 +6067,19 @@
         <v>704422</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>659478</v>
+        <v>661571</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>748220</v>
+        <v>754358</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3412197548189101</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3194492725747882</v>
+        <v>0.3204628113901908</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3624353040884298</v>
+        <v>0.3654087219641665</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>117542</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97567</v>
+        <v>97001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>141418</v>
+        <v>138263</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1149635362005747</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09542647035301022</v>
+        <v>0.09487274538491938</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1383153924560001</v>
+        <v>0.135229474714943</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -6117,19 +6117,19 @@
         <v>97328</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79550</v>
+        <v>80465</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117168</v>
+        <v>121314</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09340523628226105</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07634405453662026</v>
+        <v>0.07722273955124372</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1124460813110704</v>
+        <v>0.1164246996944979</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>194</v>
@@ -6138,19 +6138,19 @@
         <v>214870</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>186451</v>
+        <v>185467</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>245629</v>
+        <v>243629</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1040822489974799</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09031637096620765</v>
+        <v>0.08983952922846605</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1189820606285096</v>
+        <v>0.1180131827666417</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>22516</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14804</v>
+        <v>14313</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34624</v>
+        <v>35579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02202229234908746</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01447913411569073</v>
+        <v>0.01399922337322444</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03386462701080829</v>
+        <v>0.03479850797239903</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -6188,19 +6188,19 @@
         <v>13487</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7473</v>
+        <v>7760</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22097</v>
+        <v>22465</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01294339759459806</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007171838764971124</v>
+        <v>0.007447651468630672</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02120647974653933</v>
+        <v>0.02155953057926404</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -6209,19 +6209,19 @@
         <v>36003</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26342</v>
+        <v>25861</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50391</v>
+        <v>49016</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01743983168731941</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01276017084895174</v>
+        <v>0.01252675128064184</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02440945918124169</v>
+        <v>0.02374316312129344</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>5252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1793</v>
+        <v>1818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12029</v>
+        <v>11942</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005137159689956709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001753325374130764</v>
+        <v>0.001778597905430699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01176502811698099</v>
+        <v>0.01168026686766319</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -6259,19 +6259,19 @@
         <v>6051</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2076</v>
+        <v>2113</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13647</v>
+        <v>14424</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005806959985383287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001992125043929493</v>
+        <v>0.002027879140624753</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01309670529503851</v>
+        <v>0.01384231511969977</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -6280,19 +6280,19 @@
         <v>11303</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5347</v>
+        <v>6034</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20453</v>
+        <v>22593</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00547523316564219</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002589932112731821</v>
+        <v>0.002922807415653486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009907441779430806</v>
+        <v>0.01094406922272909</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>296810</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>270400</v>
+        <v>270508</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>327331</v>
+        <v>323576</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3913091276856919</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3564902283351882</v>
+        <v>0.3566326851378172</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4315476432778295</v>
+        <v>0.4265961624416581</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>310</v>
@@ -6405,19 +6405,19 @@
         <v>322415</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>294495</v>
+        <v>295469</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>350820</v>
+        <v>350348</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4126827266900905</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3769463487999924</v>
+        <v>0.3781920595495464</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4490401553423032</v>
+        <v>0.4484357705767306</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>583</v>
@@ -6426,19 +6426,19 @@
         <v>619225</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>582245</v>
+        <v>578914</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>662459</v>
+        <v>660866</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4021538969928199</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3781373054087865</v>
+        <v>0.3759736389346359</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.430231892731161</v>
+        <v>0.4291970856259051</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>320849</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>292806</v>
+        <v>292226</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>350773</v>
+        <v>351477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4230012829043672</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3860300982001996</v>
+        <v>0.3852647212086987</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4624529015125514</v>
+        <v>0.4633804250295638</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>294</v>
@@ -6476,19 +6476,19 @@
         <v>317718</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>290717</v>
+        <v>290696</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>345934</v>
+        <v>344423</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4066702546295514</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3721100417666208</v>
+        <v>0.372083614972452</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4427868744363734</v>
+        <v>0.4408528390184392</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>586</v>
@@ -6497,19 +6497,19 @@
         <v>638567</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>596765</v>
+        <v>603218</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>677836</v>
+        <v>679995</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4147150680206635</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3875672767568802</v>
+        <v>0.3917579877355724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4402183287084616</v>
+        <v>0.4416202760116938</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>125306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102878</v>
+        <v>105784</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>147799</v>
+        <v>147757</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1652016639134402</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1356319132636323</v>
+        <v>0.1394635017703137</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1948548708626353</v>
+        <v>0.1948001526071729</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>118</v>
@@ -6547,19 +6547,19 @@
         <v>127778</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>106243</v>
+        <v>108228</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>150248</v>
+        <v>148195</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1635521236206187</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1359882530997062</v>
+        <v>0.1385287291577514</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1923128707661663</v>
+        <v>0.1896861064091505</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>234</v>
@@ -6568,19 +6568,19 @@
         <v>253084</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>221605</v>
+        <v>224521</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>284343</v>
+        <v>285643</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1643647022049896</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1439208765251552</v>
+        <v>0.1458144078188846</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1846654721076961</v>
+        <v>0.1855096181581961</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>13543</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7291</v>
+        <v>7440</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23980</v>
+        <v>23880</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01785538693517938</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009612368107845916</v>
+        <v>0.009809369604738875</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03161532369284251</v>
+        <v>0.03148350060496394</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -6618,19 +6618,19 @@
         <v>12280</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6139</v>
+        <v>5986</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23511</v>
+        <v>21441</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01571764733842062</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007857260737904144</v>
+        <v>0.007662247185008545</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03009406139581875</v>
+        <v>0.02744340231966422</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -6639,19 +6639,19 @@
         <v>25823</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15863</v>
+        <v>16701</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38658</v>
+        <v>38419</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01677071735001544</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0103023374455058</v>
+        <v>0.01084662719254618</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02510602215997698</v>
+        <v>0.02495103599013284</v>
       </c>
     </row>
     <row r="20">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6844</v>
+        <v>7987</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002632538561321228</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009023532588164053</v>
+        <v>0.01052999052830411</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4334</v>
+        <v>5448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001377247721318753</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.005547046558449766</v>
+        <v>0.006972979871605201</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6710,19 +6710,19 @@
         <v>3073</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>865</v>
+        <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8217</v>
+        <v>8961</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001995615431511591</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0005618719431846965</v>
+        <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005336373297573086</v>
+        <v>0.005819511132221167</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>491224</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>460576</v>
+        <v>455677</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>523839</v>
+        <v>520956</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5252021713728559</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4924338488108282</v>
+        <v>0.4871962256536585</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.560072526147439</v>
+        <v>0.5569903840330928</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>523</v>
@@ -6835,19 +6835,19 @@
         <v>564770</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>532189</v>
+        <v>531332</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>597632</v>
+        <v>597167</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5410820735774176</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5098671665180651</v>
+        <v>0.5090460970785711</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5725661274139452</v>
+        <v>0.5721204487205862</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1010</v>
@@ -6856,19 +6856,19 @@
         <v>1055994</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1013560</v>
+        <v>1009659</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1104580</v>
+        <v>1096322</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5335773129597782</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5121357741254488</v>
+        <v>0.5101648209786197</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5581266640689836</v>
+        <v>0.5539540978631927</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>304069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>276259</v>
+        <v>276264</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>331533</v>
+        <v>336918</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3251010223586297</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2953677701963509</v>
+        <v>0.2953729713043413</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3544650900724266</v>
+        <v>0.3602229638588802</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>294</v>
@@ -6906,19 +6906,19 @@
         <v>318616</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>285881</v>
+        <v>290064</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>349460</v>
+        <v>352824</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3052522493742618</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2738904658836609</v>
+        <v>0.2778976765066062</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3348030540750743</v>
+        <v>0.3380251490395836</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>597</v>
@@ -6927,19 +6927,19 @@
         <v>622684</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>578122</v>
+        <v>585217</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>664822</v>
+        <v>667992</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3146326780370251</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2921159630040813</v>
+        <v>0.2957010140261723</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3359242727617353</v>
+        <v>0.3375257543379327</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>112690</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>94882</v>
+        <v>94010</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>134659</v>
+        <v>132222</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1204850874802193</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1014450209145694</v>
+        <v>0.1005128474141933</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1439736471994276</v>
+        <v>0.1413672800913689</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>108</v>
@@ -6977,19 +6977,19 @@
         <v>121598</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>102879</v>
+        <v>100084</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>145165</v>
+        <v>143104</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1164982062574186</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09856358885820535</v>
+        <v>0.095886586349004</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1390764445054879</v>
+        <v>0.1371020815199399</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>221</v>
@@ -6998,19 +6998,19 @@
         <v>234289</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>208254</v>
+        <v>205059</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>266750</v>
+        <v>265161</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.118382385945848</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1052275372649379</v>
+        <v>0.103613205180968</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1347843927209856</v>
+        <v>0.1339816934693395</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>19588</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12141</v>
+        <v>12180</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29536</v>
+        <v>28664</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02094241220901586</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01298091172730479</v>
+        <v>0.01302275197820358</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03157871253477838</v>
+        <v>0.03064668761444291</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -7048,19 +7048,19 @@
         <v>28360</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19469</v>
+        <v>19030</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41618</v>
+        <v>40767</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02717022578253188</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01865253862587081</v>
+        <v>0.01823198381698505</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03987288498075204</v>
+        <v>0.03905671160659586</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -7069,19 +7069,19 @@
         <v>47947</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34968</v>
+        <v>35788</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62095</v>
+        <v>65251</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02422699291884984</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0176689926293322</v>
+        <v>0.01808319900890071</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03137563882402766</v>
+        <v>0.03297014455464098</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>7734</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3094</v>
+        <v>3219</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14258</v>
+        <v>15184</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008269306579279316</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003308282796908649</v>
+        <v>0.003441319419765134</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01524391631596935</v>
+        <v>0.01623466358397113</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -7119,19 +7119,19 @@
         <v>10435</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4899</v>
+        <v>4857</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19469</v>
+        <v>18648</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009997245008370147</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004693947189857513</v>
+        <v>0.004653503337301477</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01865248311031711</v>
+        <v>0.01786588550826425</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -7140,19 +7140,19 @@
         <v>18169</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10494</v>
+        <v>10780</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29909</v>
+        <v>29311</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009180630138498888</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005302621914504867</v>
+        <v>0.005446975779999793</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01511260594508927</v>
+        <v>0.01481046494802762</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1650051</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1588439</v>
+        <v>1589646</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1707238</v>
+        <v>1713049</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4867430950074084</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4685684442301731</v>
+        <v>0.4689245468875854</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5036124683643842</v>
+        <v>0.5053267264485979</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1681</v>
@@ -7265,19 +7265,19 @@
         <v>1766705</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1707007</v>
+        <v>1711579</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1827082</v>
+        <v>1828584</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4993658078068876</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4824920064201795</v>
+        <v>0.4837843158430438</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5164317765560166</v>
+        <v>0.5168562263580015</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3254</v>
@@ -7286,19 +7286,19 @@
         <v>3416756</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3326865</v>
+        <v>3331408</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3506852</v>
+        <v>3505101</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.493189201775967</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4802139476491492</v>
+        <v>0.4808697525300834</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5061940723898611</v>
+        <v>0.5059413108128316</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1205773</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1148004</v>
+        <v>1145535</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1263269</v>
+        <v>1260495</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3556869849767129</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3386459342235814</v>
+        <v>0.3379175784932847</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3726475761424213</v>
+        <v>0.3718291893749947</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1157</v>
@@ -7336,19 +7336,19 @@
         <v>1231116</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1173464</v>
+        <v>1173777</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1288252</v>
+        <v>1286725</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3479795044402084</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3316840022407371</v>
+        <v>0.3317725710826429</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3641292022314627</v>
+        <v>0.3636976057362044</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2306</v>
@@ -7357,19 +7357,19 @@
         <v>2436888</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2361429</v>
+        <v>2355221</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2524459</v>
+        <v>2509689</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3517509655770681</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3408588677899231</v>
+        <v>0.3399627506271803</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3643913167847164</v>
+        <v>0.3622592923323574</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>436282</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>396031</v>
+        <v>398956</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>474091</v>
+        <v>477391</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1286974896301142</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1168238214875672</v>
+        <v>0.1176867085642048</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1398504433983308</v>
+        <v>0.1408240180924682</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>409</v>
@@ -7407,19 +7407,19 @@
         <v>444673</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>406370</v>
+        <v>407513</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>485930</v>
+        <v>485913</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1256884147442539</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1148620515808979</v>
+        <v>0.1151852032903129</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1373499726725715</v>
+        <v>0.1373451231770095</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>822</v>
@@ -7428,19 +7428,19 @@
         <v>880955</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>825828</v>
+        <v>826693</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>940385</v>
+        <v>936314</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1271608296191502</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1192035918438656</v>
+        <v>0.1193284732619166</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1357391466313206</v>
+        <v>0.1351516107338878</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>80871</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>63201</v>
+        <v>64606</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>101548</v>
+        <v>102121</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02385574898488128</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01864332460770544</v>
+        <v>0.01905782792247513</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0299554215670584</v>
+        <v>0.03012437049621858</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>65</v>
@@ -7478,19 +7478,19 @@
         <v>72569</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>56564</v>
+        <v>56532</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>91782</v>
+        <v>92759</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02051192997424348</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01598816989023191</v>
+        <v>0.01597904188451354</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02594250807622125</v>
+        <v>0.02621864811701297</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>141</v>
@@ -7499,19 +7499,19 @@
         <v>153440</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>128003</v>
+        <v>129112</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>181153</v>
+        <v>181643</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02214814344083402</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01847654662905595</v>
+        <v>0.01863655135263162</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02614836916583786</v>
+        <v>0.02621919589487167</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>17006</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9745</v>
+        <v>10178</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26239</v>
+        <v>28197</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005016681400883216</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002874580639530474</v>
+        <v>0.003002454190038269</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007740257968065449</v>
+        <v>0.008317620225904406</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -7549,19 +7549,19 @@
         <v>22835</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>14931</v>
+        <v>14862</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>34955</v>
+        <v>33780</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006454343034406572</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004220342123336264</v>
+        <v>0.00420067411214563</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.009880055034761288</v>
+        <v>0.009548096117740844</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>36</v>
@@ -7570,19 +7570,19 @@
         <v>39841</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>27255</v>
+        <v>28288</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>55275</v>
+        <v>55302</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005750859586980755</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003934053913709385</v>
+        <v>0.004083262698769475</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00797861275349002</v>
+        <v>0.007982525233048101</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>369049</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>340388</v>
+        <v>339928</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>399763</v>
+        <v>395043</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5349347751435176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4933904151058437</v>
+        <v>0.4927241196064696</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.57945376041457</v>
+        <v>0.5726123870263743</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>601</v>
@@ -7935,19 +7935,19 @@
         <v>387289</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>363985</v>
+        <v>364265</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>410057</v>
+        <v>410879</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5331845802141689</v>
+        <v>0.533184580214169</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.501102670131536</v>
+        <v>0.5014877030772253</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5645296786679515</v>
+        <v>0.565661788500626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>956</v>
@@ -7956,19 +7956,19 @@
         <v>756338</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>719029</v>
+        <v>720331</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>792520</v>
+        <v>790736</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5340371408829128</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5076940036149703</v>
+        <v>0.5086133799427729</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5595842139100548</v>
+        <v>0.5583248388734739</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>206589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>181531</v>
+        <v>183119</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>230555</v>
+        <v>230964</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2994492717561181</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2631281578755793</v>
+        <v>0.2654296013323463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3341876499522337</v>
+        <v>0.3347815281900986</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>421</v>
@@ -8006,19 +8006,19 @@
         <v>231615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>211926</v>
+        <v>210955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>252826</v>
+        <v>252809</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3188663574556226</v>
+        <v>0.3188663574556228</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2917607401852911</v>
+        <v>0.2904239318492504</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3480686858570925</v>
+        <v>0.3480453714214213</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>664</v>
@@ -8027,19 +8027,19 @@
         <v>438203</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>405936</v>
+        <v>407804</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>470448</v>
+        <v>470894</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.309407843268757</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2866241743356712</v>
+        <v>0.2879430534811282</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3321752091518815</v>
+        <v>0.3324901433567704</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>70060</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56419</v>
+        <v>55314</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88980</v>
+        <v>87181</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1015519865210129</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08177925889883944</v>
+        <v>0.08017723720348841</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1289756284552641</v>
+        <v>0.1263681441076924</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>140</v>
@@ -8077,19 +8077,19 @@
         <v>73149</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61520</v>
+        <v>61689</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85908</v>
+        <v>86466</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1007052741570358</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0846956121781088</v>
+        <v>0.08492843192121709</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1182699652323917</v>
+        <v>0.1190386297438286</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>217</v>
@@ -8098,19 +8098,19 @@
         <v>143209</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>126312</v>
+        <v>122837</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>164492</v>
+        <v>163537</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1011177274484727</v>
+        <v>0.1011177274484726</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08918655092392634</v>
+        <v>0.08673306942854409</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1161446057039111</v>
+        <v>0.1154706773295216</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>33770</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24319</v>
+        <v>23700</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45630</v>
+        <v>46709</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0489496404353587</v>
+        <v>0.04894964043535868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0352499265025179</v>
+        <v>0.03435323490134758</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06614102947899961</v>
+        <v>0.06770390677246896</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -8148,19 +8148,19 @@
         <v>22828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16385</v>
+        <v>16795</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30764</v>
+        <v>30389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03142801471801866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02255709608216286</v>
+        <v>0.02312208699745107</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04235364393034969</v>
+        <v>0.04183634227934453</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>89</v>
@@ -8169,19 +8169,19 @@
         <v>56598</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45083</v>
+        <v>45347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70883</v>
+        <v>71555</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03996320624929155</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03183204408632409</v>
+        <v>0.0320188981565909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05004923695368541</v>
+        <v>0.05052348871227519</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>10427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5813</v>
+        <v>5324</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18246</v>
+        <v>18469</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01511432614399277</v>
+        <v>0.01511432614399276</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008426470478592392</v>
+        <v>0.007717760769005255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02644677626619552</v>
+        <v>0.02677090492712546</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -8219,19 +8219,19 @@
         <v>11488</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7424</v>
+        <v>7122</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18719</v>
+        <v>18110</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01581577345515381</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01022105144037451</v>
+        <v>0.009804592377813436</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02577115204792915</v>
+        <v>0.0249323965073748</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -8240,19 +8240,19 @@
         <v>21915</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14892</v>
+        <v>13808</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31829</v>
+        <v>32083</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01547408215056608</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01051485969140115</v>
+        <v>0.009749862861697331</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02247401444700664</v>
+        <v>0.0226533563407616</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>527087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>487396</v>
+        <v>490426</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>561467</v>
+        <v>564974</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.502858291783689</v>
+        <v>0.5028582917836891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.464991705235642</v>
+        <v>0.4678821327149857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5356579485326454</v>
+        <v>0.5390040298108583</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>692</v>
@@ -8365,19 +8365,19 @@
         <v>523201</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>492184</v>
+        <v>497798</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>551518</v>
+        <v>553009</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4904095583496276</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4613364158290575</v>
+        <v>0.4665987934240378</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5169519740990353</v>
+        <v>0.5183490457687366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1143</v>
@@ -8386,19 +8386,19 @@
         <v>1050289</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1004299</v>
+        <v>1004682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1095586</v>
+        <v>1096199</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4965789401761377</v>
+        <v>0.4965789401761378</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.474834956314195</v>
+        <v>0.4750157714103147</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5179957165339465</v>
+        <v>0.5182852119180231</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>387760</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>354637</v>
+        <v>352737</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>424788</v>
+        <v>422353</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.369935705310429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3383350078826297</v>
+        <v>0.3365227872158522</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4052613280660284</v>
+        <v>0.4029384605876473</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>571</v>
@@ -8436,19 +8436,19 @@
         <v>382502</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>356296</v>
+        <v>355512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>413353</v>
+        <v>408512</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3585283412842316</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3339653179939505</v>
+        <v>0.3332300863312223</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.387445643134157</v>
+        <v>0.3829080284806661</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>948</v>
@@ -8457,19 +8457,19 @@
         <v>770262</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>728391</v>
+        <v>729343</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>814861</v>
+        <v>818320</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.364181638038024</v>
+        <v>0.3641816380380241</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3443849253977299</v>
+        <v>0.3448351855262721</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3852680709887991</v>
+        <v>0.3869035894563718</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>85975</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68570</v>
+        <v>69032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108512</v>
+        <v>108968</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08202256592010312</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06541827613702816</v>
+        <v>0.06585835716922425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1035238427579641</v>
+        <v>0.1039586177175046</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>163</v>
@@ -8507,19 +8507,19 @@
         <v>100199</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>84890</v>
+        <v>86103</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116453</v>
+        <v>116414</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09391869697501065</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07956909385937171</v>
+        <v>0.08070617399869302</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1091541730409609</v>
+        <v>0.1091176151800607</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>246</v>
@@ -8528,19 +8528,19 @@
         <v>186173</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>160920</v>
+        <v>164080</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>210690</v>
+        <v>213084</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08802317554508599</v>
+        <v>0.088023175545086</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07608353085070531</v>
+        <v>0.07757733396214843</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09961466097944446</v>
+        <v>0.1007465247462968</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>34826</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24988</v>
+        <v>25150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50273</v>
+        <v>48357</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03322522649535466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02383962705852652</v>
+        <v>0.02399347414694519</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04796251624433689</v>
+        <v>0.04613369720766491</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -8578,19 +8578,19 @@
         <v>46106</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35392</v>
+        <v>34741</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60057</v>
+        <v>58584</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04321624641176874</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03317375185953728</v>
+        <v>0.03256355383745317</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05629258745133452</v>
+        <v>0.0549120921660521</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -8599,19 +8599,19 @@
         <v>80932</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65537</v>
+        <v>64819</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>101169</v>
+        <v>99335</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03826486585348848</v>
+        <v>0.03826486585348847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03098619467445712</v>
+        <v>0.03064663226562159</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04783296316793979</v>
+        <v>0.04696586962720872</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>12534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6831</v>
+        <v>6489</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22193</v>
+        <v>21597</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01195821049042398</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006516975575080925</v>
+        <v>0.006191072700683143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02117261344010114</v>
+        <v>0.02060406411157815</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -8649,19 +8649,19 @@
         <v>14858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8658</v>
+        <v>8737</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34004</v>
+        <v>27361</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01392715697936141</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008114892172180779</v>
+        <v>0.008189079918244843</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03187310451312705</v>
+        <v>0.02564594536872714</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -8670,19 +8670,19 @@
         <v>27393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18244</v>
+        <v>18660</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42087</v>
+        <v>42706</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01295138038726368</v>
+        <v>0.01295138038726369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008625708767299073</v>
+        <v>0.008822334027951411</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01989895765947524</v>
+        <v>0.02019172672180303</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>418974</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>382752</v>
+        <v>386150</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>449109</v>
+        <v>453275</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5238736042882612</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4785818158249222</v>
+        <v>0.4828315826663446</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5615533076775633</v>
+        <v>0.5667625246459321</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>556</v>
@@ -8795,19 +8795,19 @@
         <v>435503</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>409825</v>
+        <v>410142</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>461682</v>
+        <v>461225</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5374366284973175</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5057493599025296</v>
+        <v>0.506139855919044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5697434923506207</v>
+        <v>0.5691798378063218</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>896</v>
@@ -8816,19 +8816,19 @@
         <v>854477</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>814539</v>
+        <v>812252</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>897260</v>
+        <v>902215</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5306996411679804</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5058948539955037</v>
+        <v>0.5044748878785595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5572713389797229</v>
+        <v>0.5603489268562925</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>278577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>250175</v>
+        <v>249740</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>313964</v>
+        <v>309697</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3483253966672229</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3128118994211815</v>
+        <v>0.3122680668716229</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3925719452489159</v>
+        <v>0.3872360334920911</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>343</v>
@@ -8866,19 +8866,19 @@
         <v>258242</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>235008</v>
+        <v>236121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>283497</v>
+        <v>281537</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3186859718627292</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2900143708480659</v>
+        <v>0.2913878873067886</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3498526980230441</v>
+        <v>0.3474336152713154</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>584</v>
@@ -8887,19 +8887,19 @@
         <v>536819</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>496486</v>
+        <v>496110</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>574514</v>
+        <v>577285</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3334083837878944</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3083584936223102</v>
+        <v>0.3081248650933667</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3568199624038603</v>
+        <v>0.3585408240064202</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>78809</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60920</v>
+        <v>59732</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>102838</v>
+        <v>100912</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09854029898405949</v>
+        <v>0.09854029898405951</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07617311960443542</v>
+        <v>0.07468670980998907</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1285861820965596</v>
+        <v>0.1261770616054235</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>108</v>
@@ -8937,19 +8937,19 @@
         <v>89397</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74154</v>
+        <v>72331</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>110846</v>
+        <v>107324</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1103216606337348</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09151062174378963</v>
+        <v>0.08926079314401587</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1367906097148957</v>
+        <v>0.1324440786607455</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>175</v>
@@ -8958,19 +8958,19 @@
         <v>168206</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>142775</v>
+        <v>144136</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>198512</v>
+        <v>198032</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.104469655731819</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08867502848393062</v>
+        <v>0.0895203072889116</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1232917962069429</v>
+        <v>0.1229939940809059</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>19055</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11725</v>
+        <v>12652</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28555</v>
+        <v>28868</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02382573030551132</v>
+        <v>0.02382573030551133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01466004576292528</v>
+        <v>0.01581918096054739</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03570469689483934</v>
+        <v>0.03609564444792236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -9008,19 +9008,19 @@
         <v>20585</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13833</v>
+        <v>13896</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29747</v>
+        <v>30199</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02540352953602011</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01707106816859443</v>
+        <v>0.01714815998043225</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03670912208692678</v>
+        <v>0.03726751700662913</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -9029,19 +9029,19 @@
         <v>39640</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29482</v>
+        <v>30217</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51664</v>
+        <v>52912</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02461980952930671</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01831041647808074</v>
+        <v>0.0187674825986532</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03208768384562256</v>
+        <v>0.03286254451546908</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>4347</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1115</v>
+        <v>1147</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9838</v>
+        <v>10175</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00543496975494513</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001393790700950444</v>
+        <v>0.001434591129700166</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0123009527026695</v>
+        <v>0.01272244843419869</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -9079,19 +9079,19 @@
         <v>6606</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3216</v>
+        <v>3298</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12069</v>
+        <v>12665</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008152209470198296</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003968289768765155</v>
+        <v>0.004069318614892032</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01489417205690209</v>
+        <v>0.01562906882275938</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -9100,19 +9100,19 @@
         <v>10953</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6209</v>
+        <v>6004</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18647</v>
+        <v>18412</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006802509782999558</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003856242657849717</v>
+        <v>0.003728922060122759</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01158148708958896</v>
+        <v>0.01143507696486587</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>566663</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>532881</v>
+        <v>533166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>598165</v>
+        <v>599013</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5737020713533298</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5395010582608217</v>
+        <v>0.5397890838573767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6055952222870138</v>
+        <v>0.6064541501649573</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>894</v>
@@ -9225,19 +9225,19 @@
         <v>651891</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>622408</v>
+        <v>622767</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>681321</v>
+        <v>681538</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5864002522166363</v>
+        <v>0.5864002522166362</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5598793531325351</v>
+        <v>0.5602015535688412</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6128737067410989</v>
+        <v>0.6130687564591935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1432</v>
@@ -9246,19 +9246,19 @@
         <v>1218554</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1174463</v>
+        <v>1172012</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1262345</v>
+        <v>1258391</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5804260234290753</v>
+        <v>0.5804260234290755</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5594246411399555</v>
+        <v>0.5582572326955144</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6012847380267063</v>
+        <v>0.5994014026749848</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>286501</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>259043</v>
+        <v>256547</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>319101</v>
+        <v>317060</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2900597458190026</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2622609709290529</v>
+        <v>0.2597340176056315</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3230651477897824</v>
+        <v>0.3209987047680806</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>438</v>
@@ -9296,19 +9296,19 @@
         <v>312487</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>285544</v>
+        <v>285784</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>342300</v>
+        <v>340930</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2810937306638081</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2568574793299739</v>
+        <v>0.2570733748635122</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3079114097518181</v>
+        <v>0.3066791113528041</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>749</v>
@@ -9317,19 +9317,19 @@
         <v>598988</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>561379</v>
+        <v>561581</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>640630</v>
+        <v>639042</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2853120534634664</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2673980623636857</v>
+        <v>0.2674945068591577</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3051473303605916</v>
+        <v>0.3043907175282293</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>87090</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>70703</v>
+        <v>70167</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>105804</v>
+        <v>108159</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08817158748822584</v>
+        <v>0.08817158748822583</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07158165221475128</v>
+        <v>0.07103828832940134</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1071188455592783</v>
+        <v>0.1095021699381718</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>127</v>
@@ -9367,19 +9367,19 @@
         <v>87293</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>74192</v>
+        <v>71885</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>103715</v>
+        <v>103087</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.07852335514718382</v>
+        <v>0.07852335514718381</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06673812208254028</v>
+        <v>0.06466305458502696</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09329582288195346</v>
+        <v>0.09273073692517682</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>226</v>
@@ -9388,19 +9388,19 @@
         <v>174383</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>152765</v>
+        <v>155148</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>197530</v>
+        <v>199488</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08306264687892252</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07276565485518569</v>
+        <v>0.07390055514762979</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09408824580579732</v>
+        <v>0.09502108410668667</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>37119</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26519</v>
+        <v>27134</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50714</v>
+        <v>49434</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0375796744859786</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02684801203838596</v>
+        <v>0.02747137605742839</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05134349376071256</v>
+        <v>0.05004765412015793</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -9438,19 +9438,19 @@
         <v>46786</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36135</v>
+        <v>36656</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56964</v>
+        <v>58784</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04208547774647257</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03250474024233793</v>
+        <v>0.03297357956456441</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05124094455814305</v>
+        <v>0.05287838552597139</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>117</v>
@@ -9459,19 +9459,19 @@
         <v>83904</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68396</v>
+        <v>69275</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100897</v>
+        <v>101381</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03996559145412065</v>
+        <v>0.03996559145412067</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03257878040359732</v>
+        <v>0.03299749837893254</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04805954404111011</v>
+        <v>0.04829015331758676</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>10358</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5513</v>
+        <v>5449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17665</v>
+        <v>18628</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01048692085346314</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005581462537133783</v>
+        <v>0.005516518715741069</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01788459269451374</v>
+        <v>0.01885920515935353</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -9509,19 +9509,19 @@
         <v>13226</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8471</v>
+        <v>7819</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21231</v>
+        <v>19281</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01189718422589934</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007620142101100243</v>
+        <v>0.007033375982550824</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01909829624889658</v>
+        <v>0.01734432189216588</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -9530,19 +9530,19 @@
         <v>23584</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15719</v>
+        <v>15698</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33043</v>
+        <v>33186</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01123368477441514</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007487356350401812</v>
+        <v>0.007477288041959913</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01573918475046561</v>
+        <v>0.01580723382175383</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1881773</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1816208</v>
+        <v>1824361</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1939161</v>
+        <v>1951990</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5337500899233276</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5151528960930655</v>
+        <v>0.5174654467618321</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5500276892014335</v>
+        <v>0.5536664955288241</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2743</v>
@@ -9655,19 +9655,19 @@
         <v>1997884</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1938576</v>
+        <v>1941832</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2052039</v>
+        <v>2050500</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5377520498237465</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5217885620443168</v>
+        <v>0.5226650080506935</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5523283252701199</v>
+        <v>0.5519141606042319</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4427</v>
@@ -9676,19 +9676,19 @@
         <v>3879658</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3796080</v>
+        <v>3797874</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3958876</v>
+        <v>3967687</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5358034879498781</v>
+        <v>0.535803487949878</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5242609448596803</v>
+        <v>0.5245086854546396</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5467440606060286</v>
+        <v>0.5479608067429625</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1159427</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1103846</v>
+        <v>1101029</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1217184</v>
+        <v>1217375</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3288622709417842</v>
+        <v>0.3288622709417843</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3130972895720958</v>
+        <v>0.3122980563160512</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3452446092584687</v>
+        <v>0.3452986964652137</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1773</v>
@@ -9726,19 +9726,19 @@
         <v>1184846</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1134762</v>
+        <v>1138049</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1237592</v>
+        <v>1234202</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3189139121994885</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3054333334156754</v>
+        <v>0.3063180995990828</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3331112086065858</v>
+        <v>0.3321988086113498</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2945</v>
@@ -9747,19 +9747,19 @@
         <v>2344273</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2258347</v>
+        <v>2266106</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2418082</v>
+        <v>2419104</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3237577869596464</v>
+        <v>0.3237577869596462</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3118909672516789</v>
+        <v>0.3129624946197914</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.33395134892255</v>
+        <v>0.334092464959334</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>321933</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>289908</v>
+        <v>287960</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>363095</v>
+        <v>362418</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.09131385483286363</v>
+        <v>0.09131385483286364</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08223018479235654</v>
+        <v>0.08167761631284022</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1029890507618705</v>
+        <v>0.1027971243575393</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>538</v>
@@ -9797,19 +9797,19 @@
         <v>350038</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>319548</v>
+        <v>320536</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>381275</v>
+        <v>383762</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.09421657352837114</v>
+        <v>0.09421657352837111</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08600985739963352</v>
+        <v>0.08627583930448075</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.102624370579977</v>
+        <v>0.1032936441342549</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>864</v>
@@ -9818,19 +9818,19 @@
         <v>671972</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>630338</v>
+        <v>624532</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>724336</v>
+        <v>720247</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.09280323428425755</v>
+        <v>0.09280323428425753</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08705336301960953</v>
+        <v>0.08625147063080855</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1000350337294305</v>
+        <v>0.0994703651148971</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>124770</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>104061</v>
+        <v>105167</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>146243</v>
+        <v>148756</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03538994504571167</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02951594839995451</v>
+        <v>0.0298298636380891</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04148056951085879</v>
+        <v>0.04219347925847589</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>215</v>
@@ -9868,19 +9868,19 @@
         <v>136305</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>119176</v>
+        <v>118729</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>156667</v>
+        <v>158289</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03668804809617745</v>
+        <v>0.03668804809617744</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03207757233255733</v>
+        <v>0.0319571581470213</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04216871794158546</v>
+        <v>0.04260511965712387</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>360</v>
@@ -9889,19 +9889,19 @@
         <v>261075</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>233302</v>
+        <v>234952</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>293283</v>
+        <v>289432</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.03605599925625152</v>
+        <v>0.03605599925625151</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03222033495000387</v>
+        <v>0.03244828446750998</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04050416436082172</v>
+        <v>0.03997230959298567</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>37667</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26446</v>
+        <v>27976</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>51429</v>
+        <v>51646</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01068383925631281</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007501091591731126</v>
+        <v>0.007935087653054855</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01458737575858071</v>
+        <v>0.01464893677745454</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>64</v>
@@ -9939,19 +9939,19 @@
         <v>46178</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36073</v>
+        <v>35613</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>61375</v>
+        <v>61056</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0124294163522166</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009709553148971699</v>
+        <v>0.009585535780379134</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01651968807072422</v>
+        <v>0.01643391925367699</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>105</v>
@@ -9960,19 +9960,19 @@
         <v>83845</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>66574</v>
+        <v>67472</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>102878</v>
+        <v>104155</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01157949154996659</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009194265661368368</v>
+        <v>0.009318297221459663</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01420811581952051</v>
+        <v>0.01438438812576964</v>
       </c>
     </row>
     <row r="33">
